--- a/artfynd/A 32415-2023.xlsx
+++ b/artfynd/A 32415-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111651333</v>
+        <v>111651416</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>574013.3982996774</v>
+        <v>573987.3009507703</v>
       </c>
       <c r="R2" t="n">
-        <v>6403974.780079928</v>
+        <v>6403998.840001023</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111651416</v>
+        <v>111651333</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573987.3009507703</v>
+        <v>574013.3982996774</v>
       </c>
       <c r="R4" t="n">
-        <v>6403998.840001023</v>
+        <v>6403974.780079928</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 32415-2023.xlsx
+++ b/artfynd/A 32415-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111651416</v>
+        <v>111651333</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>573987.3009507703</v>
+        <v>574013.3982996774</v>
       </c>
       <c r="R2" t="n">
-        <v>6403998.840001023</v>
+        <v>6403974.780079928</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111651333</v>
+        <v>111651416</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>574013.3982996774</v>
+        <v>573987.3009507703</v>
       </c>
       <c r="R4" t="n">
-        <v>6403974.780079928</v>
+        <v>6403998.840001023</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 32415-2023.xlsx
+++ b/artfynd/A 32415-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111651416</v>
+        <v>111651333</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>573987.3009507703</v>
+        <v>574013.3982996774</v>
       </c>
       <c r="R2" t="n">
-        <v>6403998.840001023</v>
+        <v>6403974.780079928</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111651360</v>
+        <v>111651416</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -848,11 +848,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -861,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>574026.3980903081</v>
+        <v>573987.3009507703</v>
       </c>
       <c r="R3" t="n">
-        <v>6403965.416561502</v>
+        <v>6403998.840001023</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -907,11 +903,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>55 blommor, tät matta med bladrosetter på flera kvadratmeter1 Rikaste enskilda lokal jag sett!</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -939,7 +930,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111651333</v>
+        <v>111651360</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -974,7 +965,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>500</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -982,7 +973,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
@@ -991,10 +986,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>574013.3982996774</v>
+        <v>574026.3980903081</v>
       </c>
       <c r="R4" t="n">
-        <v>6403974.780079928</v>
+        <v>6403965.416561502</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1037,6 +1032,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>55 blommor, tät matta med bladrosetter på flera kvadratmeter1 Rikaste enskilda lokal jag sett!</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 32415-2023.xlsx
+++ b/artfynd/A 32415-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111651333</v>
+        <v>111651360</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>500</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -723,7 +723,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
@@ -732,10 +736,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>574013.3982996774</v>
+        <v>574026.3980903081</v>
       </c>
       <c r="R2" t="n">
-        <v>6403974.780079928</v>
+        <v>6403965.416561502</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -778,6 +782,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>55 blommor, tät matta med bladrosetter på flera kvadratmeter1 Rikaste enskilda lokal jag sett!</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -930,7 +939,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111651360</v>
+        <v>111651333</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -965,7 +974,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -973,11 +982,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
@@ -986,10 +991,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>574026.3980903081</v>
+        <v>574013.3982996774</v>
       </c>
       <c r="R4" t="n">
-        <v>6403965.416561502</v>
+        <v>6403974.780079928</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1032,11 +1037,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>55 blommor, tät matta med bladrosetter på flera kvadratmeter1 Rikaste enskilda lokal jag sett!</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 32415-2023.xlsx
+++ b/artfynd/A 32415-2023.xlsx
@@ -814,7 +814,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111651416</v>
+        <v>111651333</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -849,7 +849,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>573987.3009507703</v>
+        <v>574013.3982996774</v>
       </c>
       <c r="R3" t="n">
-        <v>6403998.840001023</v>
+        <v>6403974.780079928</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111651333</v>
+        <v>111651416</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>574013.3982996774</v>
+        <v>573987.3009507703</v>
       </c>
       <c r="R4" t="n">
-        <v>6403974.780079928</v>
+        <v>6403998.840001023</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 32415-2023.xlsx
+++ b/artfynd/A 32415-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,7 +814,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111651333</v>
+        <v>111651416</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -849,7 +849,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>574013.3982996774</v>
+        <v>573987.3009507703</v>
       </c>
       <c r="R3" t="n">
-        <v>6403974.780079928</v>
+        <v>6403998.840001023</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111651416</v>
+        <v>111651333</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>573987.3009507703</v>
+        <v>574013.3982996774</v>
       </c>
       <c r="R4" t="n">
-        <v>6403998.840001023</v>
+        <v>6403974.780079928</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1061,6 +1061,260 @@
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112115211</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>A 34047/A 32415, Bjärka kvarn, Sm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>574015.5355309547</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6403974.819349501</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Blackstad</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112134082</v>
+      </c>
+      <c r="B6" t="n">
+        <v>93248</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>210</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Grön sköldmossa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Buxbaumia viridis</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>A 324157A34047, Bjärka kvarn, Sm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>574024.6677635342</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6403972.319828754</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Blackstad</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På klen murken gren mitt emot kvarnen.</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Magnus Kasselstrand, Ingvor Kasselstrand, Larsgunnar Nilsson, Gunilla Nilsson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 32415-2023.xlsx
+++ b/artfynd/A 32415-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111651360</v>
+        <v>111651333</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -723,11 +723,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
@@ -736,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>574026.3980903081</v>
+        <v>574013.3982996774</v>
       </c>
       <c r="R2" t="n">
-        <v>6403965.416561502</v>
+        <v>6403974.780079928</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,11 +778,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>55 blommor, tät matta med bladrosetter på flera kvadratmeter1 Rikaste enskilda lokal jag sett!</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -939,7 +930,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111651333</v>
+        <v>111651360</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -974,7 +965,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>500</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -982,7 +973,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
@@ -991,10 +986,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>574013.3982996774</v>
+        <v>574026.3980903081</v>
       </c>
       <c r="R4" t="n">
-        <v>6403974.780079928</v>
+        <v>6403965.416561502</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1037,6 +1032,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>55 blommor, tät matta med bladrosetter på flera kvadratmeter1 Rikaste enskilda lokal jag sett!</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 32415-2023.xlsx
+++ b/artfynd/A 32415-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111651333</v>
+        <v>111651416</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>574013.3982996774</v>
+        <v>573987</v>
       </c>
       <c r="R2" t="n">
-        <v>6403974.780079928</v>
+        <v>6403999</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -765,19 +765,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -805,7 +795,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111651416</v>
+        <v>111651333</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -840,7 +830,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -857,10 +847,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>573987.3009507703</v>
+        <v>574013</v>
       </c>
       <c r="R3" t="n">
-        <v>6403998.840001023</v>
+        <v>6403975</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -890,19 +880,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -986,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>574026.3980903081</v>
+        <v>574026</v>
       </c>
       <c r="R4" t="n">
-        <v>6403965.416561502</v>
+        <v>6403965</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1019,19 +999,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1115,10 +1085,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>574015.5355309547</v>
+        <v>574016</v>
       </c>
       <c r="R5" t="n">
-        <v>6403974.819349501</v>
+        <v>6403975</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1240,10 +1210,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>574024.6677635342</v>
+        <v>574025</v>
       </c>
       <c r="R6" t="n">
-        <v>6403972.319828754</v>
+        <v>6403972</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1273,19 +1243,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">

--- a/artfynd/A 32415-2023.xlsx
+++ b/artfynd/A 32415-2023.xlsx
@@ -1037,7 +1037,7 @@
         <v>112115211</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>112134082</v>
       </c>
       <c r="B6" t="n">
-        <v>93248</v>
+        <v>93399</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>

--- a/artfynd/A 32415-2023.xlsx
+++ b/artfynd/A 32415-2023.xlsx
@@ -1037,7 +1037,7 @@
         <v>112115211</v>
       </c>
       <c r="B5" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>112134082</v>
       </c>
       <c r="B6" t="n">
-        <v>93399</v>
+        <v>93413</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
